--- a/public/glasgow_face_matching-master/conditions.xlsx
+++ b/public/glasgow_face_matching-master/conditions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpzjwp/Dropbox/ALL_SHARED/PsychoPy_books/books/building_rmd/source/using_images/GFMT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristofer\Downloads\Digitalizacion_tests-20240115T152615Z-001\glasgow_face_matching-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABD111F-8270-4829-870B-CFF3F88F3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="-285" yWindow="2430" windowWidth="12555" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="1" r:id="rId1"/>
@@ -38,142 +39,142 @@
     <t>sameOrDiff</t>
   </si>
   <si>
-    <t>same/020_C2_DV.jpg</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
     <t>same</t>
   </si>
   <si>
-    <t>same/025_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/068_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/069_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/074_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/075_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>same/081_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/085_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/092_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/102_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/108_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>same/115_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/120_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>same/129_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/136_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/139_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>same/168_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/170_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>same/235_C2_DV.jpg</t>
-  </si>
-  <si>
-    <t>same/303_DV_C2.jpg</t>
-  </si>
-  <si>
-    <t>different/013_235_R.jpg</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
     <t>different</t>
   </si>
   <si>
-    <t>different/019_074_L.jpg</t>
-  </si>
-  <si>
-    <t>different/025_235_L.jpg</t>
-  </si>
-  <si>
-    <t>different/049_218_L.jpg</t>
-  </si>
-  <si>
-    <t>different/076_109_R.jpg</t>
-  </si>
-  <si>
-    <t>different/077_133_R.jpg</t>
-  </si>
-  <si>
-    <t>different/091_283_R.jpg</t>
-  </si>
-  <si>
-    <t>different/092_283_L.jpg</t>
-  </si>
-  <si>
-    <t>different/102_224_R.jpg</t>
-  </si>
-  <si>
-    <t>different/106_224_L.jpg</t>
-  </si>
-  <si>
-    <t>different/116_067_R.jpg</t>
-  </si>
-  <si>
-    <t>different/120_133_R.jpg</t>
-  </si>
-  <si>
-    <t>different/132_210_R.jpg</t>
-  </si>
-  <si>
-    <t>different/143_254_R.jpg</t>
-  </si>
-  <si>
-    <t>different/209_224_R.jpg</t>
-  </si>
-  <si>
-    <t>different/254_287_L.jpg</t>
-  </si>
-  <si>
-    <t>different/261_254_L.jpg</t>
-  </si>
-  <si>
-    <t>different/282_108_R.jpg</t>
-  </si>
-  <si>
-    <t>different/296_235_L.jpg</t>
-  </si>
-  <si>
-    <t>different/303_037_R.jpg</t>
+    <t>same/55a.png</t>
+  </si>
+  <si>
+    <t>same/57c.png</t>
+  </si>
+  <si>
+    <t>same/56a.png</t>
+  </si>
+  <si>
+    <t>same/58a.png</t>
+  </si>
+  <si>
+    <t>same/59a.png</t>
+  </si>
+  <si>
+    <t>same/63a.png</t>
+  </si>
+  <si>
+    <t>same/64b.png</t>
+  </si>
+  <si>
+    <t>same/69c.png</t>
+  </si>
+  <si>
+    <t>same/73a.png</t>
+  </si>
+  <si>
+    <t>same/74a.png</t>
+  </si>
+  <si>
+    <t>same/75c.png</t>
+  </si>
+  <si>
+    <t>same/76b.png</t>
+  </si>
+  <si>
+    <t>same/78a.png</t>
+  </si>
+  <si>
+    <t>same/79a.png</t>
+  </si>
+  <si>
+    <t>same/81b.png</t>
+  </si>
+  <si>
+    <t>same/82a.png</t>
+  </si>
+  <si>
+    <t>same/84a.png</t>
+  </si>
+  <si>
+    <t>same/88b.png</t>
+  </si>
+  <si>
+    <t>same/89a.png</t>
+  </si>
+  <si>
+    <t>same/98a.png</t>
+  </si>
+  <si>
+    <t>different/3c.png</t>
+  </si>
+  <si>
+    <t>different/4a.png</t>
+  </si>
+  <si>
+    <t>different/7c.png</t>
+  </si>
+  <si>
+    <t>different/11b.png</t>
+  </si>
+  <si>
+    <t>different/17a.png</t>
+  </si>
+  <si>
+    <t>different/18a.png</t>
+  </si>
+  <si>
+    <t>different/19b.png</t>
+  </si>
+  <si>
+    <t>different/21a.png</t>
+  </si>
+  <si>
+    <t>different/22a.png</t>
+  </si>
+  <si>
+    <t>different/24b.png</t>
+  </si>
+  <si>
+    <t>different/25a.png</t>
+  </si>
+  <si>
+    <t>different/26b.png</t>
+  </si>
+  <si>
+    <t>different/27b.png</t>
+  </si>
+  <si>
+    <t>different/28b.png</t>
+  </si>
+  <si>
+    <t>different/29b.png</t>
+  </si>
+  <si>
+    <t>different/31b.png</t>
+  </si>
+  <si>
+    <t>different/32c.png</t>
+  </si>
+  <si>
+    <t>different/35b.png</t>
+  </si>
+  <si>
+    <t>different/36c.png</t>
+  </si>
+  <si>
+    <t>different/40b.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -214,6 +215,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,17 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,444 +508,444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
